--- a/data/trans_camb/Hacinamiento_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 3,8</t>
+          <t>-4,71; 3,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 9,03</t>
+          <t>-1,94; 9,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 2,47</t>
+          <t>-5,54; 2,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 6,92</t>
+          <t>-0,74; 7,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 7,33</t>
+          <t>-0,04; 6,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,64</t>
+          <t>-3,99; 0,62</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 3,91</t>
+          <t>-1,6; 3,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 6,44</t>
+          <t>-0,28; 6,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,77</t>
+          <t>-3,51; 0,82</t>
         </is>
       </c>
     </row>
@@ -791,14 +791,14 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-82,06; 1142,63</t>
-        </is>
-      </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-68,09; 602,64</t>
+          <t>-58,59; 647,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,07; 890,0</t>
+          <t>-40,63; 931,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 3,91</t>
+          <t>-1,11; 3,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 3,48</t>
+          <t>-1,8; 3,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 0,51</t>
+          <t>-4,36; 0,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 0,81</t>
+          <t>-4,52; 0,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,46</t>
+          <t>-4,7; 0,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,85; -2,22</t>
+          <t>-6,88; -2,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 1,48</t>
+          <t>-2,18; 1,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,16</t>
+          <t>-2,33; 1,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; -1,85</t>
+          <t>-5,12; -1,83</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 167,53</t>
+          <t>-23,44; 169,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,26; 143,94</t>
+          <t>-36,13; 119,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-88,13; 75,22</t>
+          <t>-88,77; 46,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 19,59</t>
+          <t>-60,15; 13,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,74; 10,16</t>
+          <t>-61,33; 10,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,38; -44,33</t>
+          <t>-84,77; -44,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,71; 38,99</t>
+          <t>-35,82; 37,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,28; 29,33</t>
+          <t>-39,63; 36,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-80,85; -36,8</t>
+          <t>-81,93; -40,07</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,93</t>
+          <t>-3,34; 0,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; -0,19</t>
+          <t>-4,09; -0,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,66; -1,92</t>
+          <t>-5,77; -2,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,83</t>
+          <t>-2,83; 1,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -0,36</t>
+          <t>-4,42; -0,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,35; -2,63</t>
+          <t>-6,48; -2,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,7</t>
+          <t>-2,47; 0,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; -0,74</t>
+          <t>-4,01; -0,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,48; -2,87</t>
+          <t>-5,55; -3,0</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,99; 20,56</t>
+          <t>-48,02; 17,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-61,58; -2,84</t>
+          <t>-61,41; -3,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-80,12; -38,75</t>
+          <t>-81,23; -40,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,81; 34,8</t>
+          <t>-36,06; 33,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,15; -4,96</t>
+          <t>-58,74; -10,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-79,89; -49,04</t>
+          <t>-80,06; -48,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 13,13</t>
+          <t>-34,92; 11,78</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-54,14; -14,5</t>
+          <t>-55,73; -16,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-77,69; -52,94</t>
+          <t>-78,13; -54,21</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,89</t>
+          <t>0,35; 5,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 4,7</t>
+          <t>0,15; 4,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,39</t>
+          <t>-2,53; 1,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,46</t>
+          <t>0,79; 6,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,25</t>
+          <t>-1,86; 3,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; -0,16</t>
+          <t>-4,8; 0,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,91</t>
+          <t>1,31; 5,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 3,32</t>
+          <t>-0,12; 3,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; -0,09</t>
+          <t>-3,14; -0,08</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,94; 178,87</t>
+          <t>3,11; 201,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 182,26</t>
+          <t>0,31; 182,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,81; 62,34</t>
+          <t>-54,97; 53,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,13; 142,92</t>
+          <t>8,47; 147,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 73,87</t>
+          <t>-27,24; 76,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-69,92; -1,82</t>
+          <t>-68,09; 4,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,82; 122,79</t>
+          <t>22,5; 136,5</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 89,67</t>
+          <t>-3,36; 92,37</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-58,01; -0,04</t>
+          <t>-57,54; -2,08</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 0,38</t>
+          <t>-3,66; 0,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,19; -0,38</t>
+          <t>-4,13; -0,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,52; -0,77</t>
+          <t>-4,78; -0,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,36</t>
+          <t>-2,97; 1,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,3; -0,52</t>
+          <t>-4,35; -0,48</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,95; -1,38</t>
+          <t>-4,77; -1,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,35</t>
+          <t>-2,51; 0,15</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,61; -0,93</t>
+          <t>-3,43; -0,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,28; -1,63</t>
+          <t>-4,27; -1,49</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-53,09; 8,17</t>
+          <t>-53,27; 4,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-62,32; -6,02</t>
+          <t>-60,57; -4,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-68,44; -16,47</t>
+          <t>-69,95; -13,85</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-36,62; 28,27</t>
+          <t>-39,93; 23,38</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,7; -7,53</t>
+          <t>-58,41; -7,57</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,32; -25,96</t>
+          <t>-65,42; -23,3</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-37,94; 6,92</t>
+          <t>-38,93; 2,82</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-53,92; -18,21</t>
+          <t>-53,03; -16,08</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-63,51; -30,88</t>
+          <t>-63,17; -29,83</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,99</t>
+          <t>-1,13; 1,02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,56</t>
+          <t>-1,66; 0,53</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,46; -1,48</t>
+          <t>-3,43; -1,48</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,46</t>
+          <t>-0,96; 1,44</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,37</t>
+          <t>-2,39; -0,33</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,52; -2,46</t>
+          <t>-4,52; -2,56</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,87</t>
+          <t>-0,74; 0,91</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,72; -0,18</t>
+          <t>-1,78; -0,21</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,67; -2,28</t>
+          <t>-3,62; -2,28</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 24,23</t>
+          <t>-21,07; 24,6</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 13,14</t>
+          <t>-30,81; 12,63</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-63,9; -34,03</t>
+          <t>-63,98; -33,29</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 27,51</t>
+          <t>-15,21; 26,37</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-37,97; -7,14</t>
+          <t>-36,66; -6,2</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-67,48; -44,35</t>
+          <t>-67,49; -46,65</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 17,32</t>
+          <t>-12,72; 18,23</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-29,75; -3,53</t>
+          <t>-30,46; -4,4</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-63,54; -46,42</t>
+          <t>-62,6; -45,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Hacinamiento_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 3,76</t>
+          <t>-4,75; 3,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 9,76</t>
+          <t>-2,72; 8,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 2,49</t>
+          <t>-4,98; 2,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 7,02</t>
+          <t>-0,46; 7,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 6,81</t>
+          <t>-0,05; 7,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 0,62</t>
+          <t>-3,07; 0,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 3,97</t>
+          <t>-1,55; 4,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 6,43</t>
+          <t>-0,27; 6,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 0,82</t>
+          <t>-3,41; 0,77</t>
         </is>
       </c>
     </row>
@@ -791,42 +791,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-85,11; 959,1</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="F7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-58,59; 647,17</t>
+          <t>-63,7; 708,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-40,63; 931,88</t>
+          <t>-38,74; 1084,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 3,95</t>
+          <t>-1,13; 3,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 3,31</t>
+          <t>-1,52; 3,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 0,08</t>
+          <t>-4,33; -0,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 0,64</t>
+          <t>-4,36; 0,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 0,49</t>
+          <t>-4,41; 0,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,88; -2,4</t>
+          <t>-6,79; -2,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 1,47</t>
+          <t>-1,96; 1,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 1,35</t>
+          <t>-2,26; 1,18</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; -1,83</t>
+          <t>-4,81; -1,84</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,44; 169,69</t>
+          <t>-23,46; 144,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-36,13; 119,19</t>
+          <t>-34,41; 140,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-88,77; 46,25</t>
+          <t>-89,2; 22,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-60,15; 13,51</t>
+          <t>-57,26; 16,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,33; 10,65</t>
+          <t>-58,55; 22,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-84,77; -44,9</t>
+          <t>-84,54; -44,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,82; 37,02</t>
+          <t>-34,15; 40,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,63; 36,13</t>
+          <t>-38,69; 29,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-81,93; -40,07</t>
+          <t>-81,78; -40,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 0,82</t>
+          <t>-3,31; 0,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,09; -0,23</t>
+          <t>-4,18; -0,34</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,77; -2,07</t>
+          <t>-5,71; -1,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,68</t>
+          <t>-2,81; 1,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,42; -0,63</t>
+          <t>-4,54; -0,52</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,48; -2,85</t>
+          <t>-6,36; -2,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 0,62</t>
+          <t>-2,36; 0,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,01; -0,92</t>
+          <t>-3,76; -1,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,55; -3,0</t>
+          <t>-5,62; -2,93</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-48,02; 17,93</t>
+          <t>-47,19; 13,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-61,41; -3,96</t>
+          <t>-59,43; -6,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,23; -40,24</t>
+          <t>-81,12; -37,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,06; 33,41</t>
+          <t>-35,75; 34,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-58,74; -10,29</t>
+          <t>-57,92; -9,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,06; -48,61</t>
+          <t>-80,07; -49,37</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,92; 11,78</t>
+          <t>-33,44; 10,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-55,73; -16,45</t>
+          <t>-53,58; -17,84</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-78,13; -54,21</t>
+          <t>-77,76; -53,2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 5,01</t>
+          <t>0,07; 4,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,15; 4,63</t>
+          <t>0,09; 4,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 1,33</t>
+          <t>-2,88; 1,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 6,55</t>
+          <t>1,06; 6,61</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,31</t>
+          <t>-1,59; 3,42</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 0,03</t>
+          <t>-4,98; 0,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,18</t>
+          <t>1,29; 5,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 3,45</t>
+          <t>-0,0; 3,6</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,14; -0,08</t>
+          <t>-3,09; 0,05</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,11; 201,52</t>
+          <t>-1,66; 197,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,31; 182,5</t>
+          <t>-2,41; 192,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,97; 53,92</t>
+          <t>-58,97; 46,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>8,47; 147,28</t>
+          <t>14,38; 158,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,24; 76,2</t>
+          <t>-24,42; 77,03</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,09; 4,72</t>
+          <t>-69,29; 2,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>22,5; 136,5</t>
+          <t>23,38; 134,46</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 92,37</t>
+          <t>-0,21; 93,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-57,54; -2,08</t>
+          <t>-55,65; 2,88</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 0,21</t>
+          <t>-3,52; 0,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,13; -0,39</t>
+          <t>-4,11; -0,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,78; -0,85</t>
+          <t>-4,55; -0,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 1,16</t>
+          <t>-2,72; 1,22</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,35; -0,48</t>
+          <t>-4,39; -0,29</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,77; -1,27</t>
+          <t>-4,88; -1,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 0,15</t>
+          <t>-2,57; 0,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,43; -0,81</t>
+          <t>-3,57; -0,88</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,27; -1,49</t>
+          <t>-4,19; -1,56</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-53,27; 4,88</t>
+          <t>-52,65; 13,14</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-60,57; -4,51</t>
+          <t>-61,73; -4,28</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-69,95; -13,85</t>
+          <t>-68,43; -14,3</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-39,93; 23,38</t>
+          <t>-37,54; 25,82</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-58,41; -7,57</t>
+          <t>-57,17; -4,13</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-65,42; -23,3</t>
+          <t>-67,93; -24,62</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-38,93; 2,82</t>
+          <t>-39,43; 5,95</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-53,03; -16,08</t>
+          <t>-53,16; -15,29</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-63,17; -29,83</t>
+          <t>-62,89; -28,77</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 1,02</t>
+          <t>-1,18; 0,96</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 0,53</t>
+          <t>-1,56; 0,53</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,43; -1,48</t>
+          <t>-3,47; -1,53</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 1,44</t>
+          <t>-1,01; 1,39</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,39; -0,33</t>
+          <t>-2,51; -0,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,52; -2,56</t>
+          <t>-4,58; -2,65</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,91</t>
+          <t>-0,71; 0,92</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,78; -0,21</t>
+          <t>-1,77; -0,24</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,62; -2,28</t>
+          <t>-3,69; -2,29</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 24,6</t>
+          <t>-22,44; 22,54</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-30,81; 12,63</t>
+          <t>-28,81; 12,5</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-63,98; -33,29</t>
+          <t>-63,73; -34,76</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 26,37</t>
+          <t>-14,74; 25,58</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-36,66; -6,2</t>
+          <t>-37,67; -5,1</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-67,49; -46,65</t>
+          <t>-67,96; -47,06</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-12,72; 18,23</t>
+          <t>-12,27; 18,1</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-30,46; -4,4</t>
+          <t>-30,64; -4,89</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-62,6; -45,43</t>
+          <t>-62,62; -45,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Hacinamiento_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 3,52</t>
+          <t>-4,31; 3,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 8,86</t>
+          <t>-2,39; 9,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 2,89</t>
+          <t>-5,48; 2,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 7,2</t>
+          <t>-0,53; 6,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 7,3</t>
+          <t>-0,13; 7,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 0,64</t>
+          <t>-3,02; 0,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 4,14</t>
+          <t>-1,69; 3,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 6,46</t>
+          <t>-0,55; 6,44</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 0,77</t>
+          <t>-3,46; 0,77</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-85,11; 959,1</t>
+          <t>-82,06; 1142,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,7; 708,02</t>
+          <t>-68,09; 602,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,74; 1084,63</t>
+          <t>-44,07; 890,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 3,66</t>
+          <t>-1,18; 3,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 3,48</t>
+          <t>-1,48; 3,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,33; -0,01</t>
+          <t>-4,34; 0,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 0,78</t>
+          <t>-4,43; 0,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,67</t>
+          <t>-4,62; 0,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,79; -2,3</t>
+          <t>-6,85; -2,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,58</t>
+          <t>-2,07; 1,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,18</t>
+          <t>-2,38; 1,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,81; -1,84</t>
+          <t>-4,93; -1,85</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,46; 144,23</t>
+          <t>-24,46; 167,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-34,41; 140,71</t>
+          <t>-30,26; 143,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-89,2; 22,12</t>
+          <t>-88,13; 75,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,26; 16,89</t>
+          <t>-57,34; 19,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,55; 22,43</t>
+          <t>-59,74; 10,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-84,54; -44,07</t>
+          <t>-85,38; -44,33</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,15; 40,45</t>
+          <t>-35,71; 38,99</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-38,69; 29,92</t>
+          <t>-41,28; 29,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-81,78; -40,68</t>
+          <t>-80,85; -36,8</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 0,59</t>
+          <t>-3,25; 0,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,18; -0,34</t>
+          <t>-4,28; -0,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; -1,91</t>
+          <t>-5,66; -1,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 1,81</t>
+          <t>-2,73; 1,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -0,52</t>
+          <t>-4,75; -0,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,36; -2,78</t>
+          <t>-6,35; -2,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,55</t>
+          <t>-2,36; 0,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; -1,04</t>
+          <t>-3,78; -0,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,62; -2,93</t>
+          <t>-5,48; -2,87</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 13,16</t>
+          <t>-45,99; 20,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,43; -6,75</t>
+          <t>-61,58; -2,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,12; -37,82</t>
+          <t>-80,12; -38,75</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,75; 34,08</t>
+          <t>-35,81; 34,8</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-57,92; -9,72</t>
+          <t>-59,15; -4,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,07; -49,37</t>
+          <t>-79,89; -49,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,44; 10,71</t>
+          <t>-34,05; 13,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-53,58; -17,84</t>
+          <t>-54,14; -14,5</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-77,76; -53,2</t>
+          <t>-77,69; -52,94</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 4,99</t>
+          <t>0,11; 4,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,09; 4,82</t>
+          <t>-0,16; 4,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 1,15</t>
+          <t>-2,93; 1,39</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,06; 6,61</t>
+          <t>1,1; 6,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 3,42</t>
+          <t>-1,55; 3,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 0,07</t>
+          <t>-4,88; -0,16</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,29; 5,09</t>
+          <t>1,15; 4,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 3,6</t>
+          <t>-0,11; 3,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 0,05</t>
+          <t>-3,27; -0,09</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 197,86</t>
+          <t>0,94; 178,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 192,63</t>
+          <t>-5,24; 182,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,97; 46,35</t>
+          <t>-58,81; 62,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>14,38; 158,97</t>
+          <t>13,13; 142,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,42; 77,03</t>
+          <t>-22,74; 73,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-69,29; 2,28</t>
+          <t>-69,92; -1,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,38; 134,46</t>
+          <t>18,82; 122,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 93,67</t>
+          <t>-2,72; 89,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-55,65; 2,88</t>
+          <t>-58,01; -0,04</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 0,54</t>
+          <t>-3,5; 0,38</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,11; -0,34</t>
+          <t>-4,19; -0,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,55; -0,8</t>
+          <t>-4,52; -0,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 1,22</t>
+          <t>-2,59; 1,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,39; -0,29</t>
+          <t>-4,3; -0,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,88; -1,26</t>
+          <t>-4,95; -1,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 0,32</t>
+          <t>-2,53; 0,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,57; -0,88</t>
+          <t>-3,61; -0,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,19; -1,56</t>
+          <t>-4,28; -1,63</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-52,65; 13,14</t>
+          <t>-53,09; 8,17</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-61,73; -4,28</t>
+          <t>-62,32; -6,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-68,43; -14,3</t>
+          <t>-68,44; -16,47</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-37,54; 25,82</t>
+          <t>-36,62; 28,27</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-57,17; -4,13</t>
+          <t>-59,7; -7,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,93; -24,62</t>
+          <t>-67,32; -25,96</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-39,43; 5,95</t>
+          <t>-37,94; 6,92</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-53,16; -15,29</t>
+          <t>-53,92; -18,21</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-62,89; -28,77</t>
+          <t>-63,51; -30,88</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,96</t>
+          <t>-1,11; 0,99</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 0,53</t>
+          <t>-1,55; 0,56</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,47; -1,53</t>
+          <t>-3,46; -1,48</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,39</t>
+          <t>-1,01; 1,46</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,51; -0,3</t>
+          <t>-2,47; -0,37</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,58; -2,65</t>
+          <t>-4,52; -2,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,92</t>
+          <t>-0,66; 0,87</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,77; -0,24</t>
+          <t>-1,72; -0,18</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-3,69; -2,29</t>
+          <t>-3,67; -2,28</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-22,44; 22,54</t>
+          <t>-20,05; 24,23</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-28,81; 12,5</t>
+          <t>-28,84; 13,14</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-63,73; -34,76</t>
+          <t>-63,9; -34,03</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 25,58</t>
+          <t>-15,36; 27,51</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-37,67; -5,1</t>
+          <t>-37,97; -7,14</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-67,96; -47,06</t>
+          <t>-67,48; -44,35</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 18,1</t>
+          <t>-11,46; 17,32</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-30,64; -4,89</t>
+          <t>-29,75; -3,53</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-62,62; -45,16</t>
+          <t>-63,54; -46,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Hacinamiento_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-3,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,64</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-2,79</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 3,8</t>
+          <t>-1,08; 3,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 9,03</t>
+          <t>-1,05; 3,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 2,47</t>
+          <t>-3,63; 1,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 6,92</t>
+          <t>-3,2; 1,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 7,33</t>
+          <t>-3,43; 1,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 0,64</t>
+          <t>-5,76; -2,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 3,91</t>
+          <t>-1,52; 1,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 6,44</t>
+          <t>-1,49; 1,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 0,77</t>
+          <t>-4,13; -1,19</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>30,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>94,84%</t>
+          <t>33,58%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-53,85%</t>
+          <t>-52,51%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>301,0%</t>
+          <t>-21,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>348,33%</t>
+          <t>-23,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-57,36%</t>
+          <t>-70,12%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>63,79%</t>
+          <t>-0,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>148,73%</t>
+          <t>-0,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-58,2%</t>
+          <t>-63,16%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,12; 140,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-82,06; 1142,63</t>
+          <t>-24,03; 144,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,0; 80,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,32; 32,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,37; 33,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,09; -46,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-68,09; 602,64</t>
+          <t>-29,22; 44,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,07; 890,0</t>
+          <t>-28,34; 47,06</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,77; -29,08</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,99</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-4,37</t>
+          <t>-4,38</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>-4,28</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 3,91</t>
+          <t>-3,25; 0,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 3,48</t>
+          <t>-4,28; -0,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 0,51</t>
+          <t>-6,07; -2,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 0,81</t>
+          <t>-2,73; 1,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,46</t>
+          <t>-4,75; -0,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,85; -2,22</t>
+          <t>-6,24; -2,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 1,48</t>
+          <t>-2,36; 0,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,16</t>
+          <t>-3,78; -0,74</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-4,93; -1,85</t>
+          <t>-5,73; -3,03</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>34,97%</t>
+          <t>-22,55%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,13%</t>
+          <t>-37,94%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-61,27%</t>
+          <t>-70,71%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-29,3%</t>
+          <t>-7,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-31,98%</t>
+          <t>-38,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-70,27%</t>
+          <t>-66,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,41%</t>
+          <t>-14,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-11,15%</t>
+          <t>-38,24%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-66,66%</t>
+          <t>-69,09%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 167,53</t>
+          <t>-45,99; 20,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,26; 143,94</t>
+          <t>-61,58; -2,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-88,13; 75,22</t>
+          <t>-87,16; -47,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,34; 19,59</t>
+          <t>-35,81; 34,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,74; 10,16</t>
+          <t>-59,15; -4,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-85,38; -44,33</t>
+          <t>-78,24; -45,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,71; 38,99</t>
+          <t>-34,05; 13,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,28; 29,33</t>
+          <t>-54,14; -14,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-80,85; -36,8</t>
+          <t>-81,21; -54,34</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>2,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,84</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-4,5</t>
+          <t>-2,65</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,17</t>
+          <t>-1,65</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,93</t>
+          <t>0,11; 4,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; -0,19</t>
+          <t>-0,16; 4,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,66; -1,92</t>
+          <t>-2,97; 1,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,83</t>
+          <t>1,1; 6,46</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -0,36</t>
+          <t>-1,55; 3,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,35; -2,63</t>
+          <t>-5,38; -0,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,7</t>
+          <t>1,15; 4,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,78; -0,74</t>
+          <t>-0,11; 3,32</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,48; -2,87</t>
+          <t>-3,52; -0,03</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-22,55%</t>
+          <t>70,05%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-37,94%</t>
+          <t>67,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-65,63%</t>
+          <t>-18,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-7,3%</t>
+          <t>66,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-38,53%</t>
+          <t>15,83%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-68,72%</t>
+          <t>-47,24%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-14,42%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-38,24%</t>
+          <t>36,01%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-67,26%</t>
+          <t>-35,92%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-45,99; 20,56</t>
+          <t>0,94; 178,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-61,58; -2,84</t>
+          <t>-5,24; 182,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-80,12; -38,75</t>
+          <t>-58,64; 59,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,81; 34,8</t>
+          <t>13,13; 142,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-59,15; -4,96</t>
+          <t>-22,74; 73,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-79,89; -49,04</t>
+          <t>-77,61; -2,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 13,13</t>
+          <t>18,82; 122,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-54,14; -14,5</t>
+          <t>-2,72; 89,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-77,69; -52,94</t>
+          <t>-64,16; -0,55</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>-2,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>-2,72</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,74</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>-2,96</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,89</t>
+          <t>-3,5; 0,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 4,7</t>
+          <t>-4,19; -0,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,39</t>
+          <t>-4,52; -0,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,46</t>
+          <t>-2,59; 1,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,25</t>
+          <t>-4,3; -0,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,88; -0,16</t>
+          <t>-4,94; -1,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,91</t>
+          <t>-2,53; 0,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 3,32</t>
+          <t>-3,61; -0,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; -0,09</t>
+          <t>-4,33; -1,67</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>70,05%</t>
+          <t>-27,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>67,6%</t>
+          <t>-40,2%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-17,96%</t>
+          <t>-48,55%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>66,75%</t>
+          <t>-12,25%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>-35,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-43,37%</t>
+          <t>-52,13%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>68,35%</t>
+          <t>-19,33%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>36,01%</t>
+          <t>-37,85%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-33,28%</t>
+          <t>-50,49%</t>
         </is>
       </c>
     </row>
@@ -1439,54 +1439,54 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,94; 178,87</t>
+          <t>-53,09; 8,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 182,26</t>
+          <t>-62,32; -6,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-58,81; 62,34</t>
+          <t>-68,61; -18,09</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,13; 142,92</t>
+          <t>-36,62; 28,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 73,87</t>
+          <t>-59,7; -7,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-69,92; -1,82</t>
+          <t>-68,77; -26,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,82; 122,79</t>
+          <t>-37,94; 6,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 89,67</t>
+          <t>-53,92; -18,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-58,01; -0,04</t>
+          <t>-64,94; -33,36</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,56</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-3,03</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 0,38</t>
+          <t>-1,11; 0,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,19; -0,38</t>
+          <t>-1,55; 0,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,52; -0,77</t>
+          <t>-3,55; -1,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,36</t>
+          <t>-1,01; 1,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,3; -0,52</t>
+          <t>-2,47; -0,37</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,95; -1,38</t>
+          <t>-4,54; -2,41</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,35</t>
+          <t>-0,66; 0,87</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,61; -0,93</t>
+          <t>-1,72; -0,18</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-4,28; -1,63</t>
+          <t>-3,76; -2,33</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-27,88%</t>
+          <t>-1,27%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-40,2%</t>
+          <t>-10,72%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-48,18%</t>
+          <t>-52,91%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-12,25%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-35,93%</t>
+          <t>-23,79%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-50,58%</t>
+          <t>-58,53%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-19,33%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-37,85%</t>
+          <t>-18,04%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-49,45%</t>
+          <t>-56,03%</t>
         </is>
       </c>
     </row>
@@ -1655,275 +1655,59 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-53,09; 8,17</t>
+          <t>-20,05; 24,23</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-62,32; -6,02</t>
+          <t>-28,84; 13,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-68,44; -16,47</t>
+          <t>-66,61; -35,24</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-36,62; 28,27</t>
+          <t>-15,36; 27,51</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,7; -7,53</t>
+          <t>-37,97; -7,14</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-67,32; -25,96</t>
+          <t>-69,2; -43,85</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-37,94; 6,92</t>
+          <t>-11,46; 17,32</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-53,92; -18,21</t>
+          <t>-29,75; -3,53</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-63,51; -30,88</t>
+          <t>-64,93; -46,56</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,52</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-2,47</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-1,42</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-3,46</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>-0,97</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-2,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 0,99</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-1,55; 0,56</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-3,46; -1,48</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 1,46</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-2,47; -0,37</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-4,52; -2,46</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 0,87</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-1,72; -0,18</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-3,67; -2,28</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-1,27%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-10,72%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-51,23%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>3,92%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-23,79%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-58,06%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>1,68%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>-18,04%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-55,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-20,05; 24,23</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-28,84; 13,14</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-63,9; -34,03</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-15,36; 27,51</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-37,97; -7,14</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>-67,48; -44,35</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-11,46; 17,32</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-29,75; -3,53</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>-63,54; -46,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_camb/Hacinamiento_R-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 3,2</t>
+          <t>-1,07; 3,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 3,59</t>
+          <t>-1,16; 3,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 1,05</t>
+          <t>-3,58; 1,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,2; 1,35</t>
+          <t>-3,26; 1,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 1,27</t>
+          <t>-3,55; 1,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,76; -2,04</t>
+          <t>-5,68; -1,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 1,56</t>
+          <t>-1,49; 1,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 1,69</t>
+          <t>-1,58; 1,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,13; -1,19</t>
+          <t>-4,09; -1,24</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-24,12; 140,57</t>
+          <t>-22,64; 135,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 144,71</t>
+          <t>-28,04; 130,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,0; 80,36</t>
+          <t>-83,35; 74,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-52,32; 32,89</t>
+          <t>-50,84; 28,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-54,37; 33,31</t>
+          <t>-54,4; 22,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,09; -46,28</t>
+          <t>-85,18; -45,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 44,51</t>
+          <t>-29,91; 49,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-28,34; 47,06</t>
+          <t>-29,82; 43,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-80,77; -29,08</t>
+          <t>-78,66; -25,31</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 0,93</t>
+          <t>-3,36; 0,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; -0,19</t>
+          <t>-4,21; -0,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,07; -2,25</t>
+          <t>-6,14; -2,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,83</t>
+          <t>-2,97; 1,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,75; -0,36</t>
+          <t>-4,7; -0,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,24; -2,46</t>
+          <t>-6,42; -2,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,7</t>
+          <t>-2,48; 0,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; -0,74</t>
+          <t>-4,1; -1,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,73; -3,03</t>
+          <t>-5,69; -2,93</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-45,99; 20,56</t>
+          <t>-47,71; 14,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-61,58; -2,84</t>
+          <t>-59,82; -4,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-87,16; -47,43</t>
+          <t>-86,88; -49,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,81; 34,8</t>
+          <t>-37,42; 32,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-59,15; -4,96</t>
+          <t>-58,7; -8,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-78,24; -45,42</t>
+          <t>-79,1; -46,38</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 13,13</t>
+          <t>-34,14; 11,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-54,14; -14,5</t>
+          <t>-55,2; -18,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-81,21; -54,34</t>
+          <t>-81,22; -54,29</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 4,89</t>
+          <t>0,08; 4,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 4,7</t>
+          <t>0,09; 4,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 1,33</t>
+          <t>-2,85; 1,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,46</t>
+          <t>0,93; 6,47</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,25</t>
+          <t>-1,71; 3,33</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; -0,12</t>
+          <t>-5,45; -0,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,91</t>
+          <t>1,09; 4,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 3,32</t>
+          <t>-0,07; 3,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,52; -0,03</t>
+          <t>-3,28; 0,14</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,94; 178,87</t>
+          <t>-0,98; 187,68</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 182,26</t>
+          <t>-0,52; 188,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-58,64; 59,74</t>
+          <t>-60,02; 53,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,13; 142,92</t>
+          <t>11,88; 151,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,74; 73,87</t>
+          <t>-24,16; 80,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,61; -2,5</t>
+          <t>-77,47; -3,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,82; 122,79</t>
+          <t>18,93; 130,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-2,72; 89,67</t>
+          <t>-1,44; 94,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-64,16; -0,55</t>
+          <t>-61,39; 3,88</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 0,38</t>
+          <t>-3,66; 0,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,19; -0,38</t>
+          <t>-4,12; -0,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,52; -0,79</t>
+          <t>-4,54; -0,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 1,36</t>
+          <t>-2,65; 1,26</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,3; -0,52</t>
+          <t>-4,24; -0,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,94; -1,42</t>
+          <t>-5,12; -1,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 0,35</t>
+          <t>-2,65; 0,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; -0,93</t>
+          <t>-3,47; -0,8</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,33; -1,67</t>
+          <t>-4,2; -1,63</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-53,09; 8,17</t>
+          <t>-53,06; 6,26</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-62,32; -6,02</t>
+          <t>-61,66; -7,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-68,61; -18,09</t>
+          <t>-68,04; -17,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-36,62; 28,27</t>
+          <t>-37,47; 27,62</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-59,7; -7,53</t>
+          <t>-57,82; -3,75</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-68,77; -26,69</t>
+          <t>-70,09; -27,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-37,94; 6,92</t>
+          <t>-40,39; 5,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-53,92; -18,21</t>
+          <t>-53,19; -15,14</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-64,94; -33,36</t>
+          <t>-64,03; -31,11</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,99</t>
+          <t>-1,16; 1,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 0,56</t>
+          <t>-1,57; 0,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,55; -1,54</t>
+          <t>-3,56; -1,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 1,46</t>
+          <t>-0,83; 1,47</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,47; -0,37</t>
+          <t>-2,64; -0,34</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,54; -2,41</t>
+          <t>-4,48; -2,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 0,87</t>
+          <t>-0,73; 0,88</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,72; -0,18</t>
+          <t>-1,7; -0,2</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,76; -2,33</t>
+          <t>-3,73; -2,27</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 24,23</t>
+          <t>-21,69; 23,47</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-28,84; 13,14</t>
+          <t>-29,05; 11,96</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-66,61; -35,24</t>
+          <t>-66,75; -33,6</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 27,51</t>
+          <t>-12,85; 27,22</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-37,97; -7,14</t>
+          <t>-39,62; -5,81</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-69,2; -43,85</t>
+          <t>-68,98; -44,91</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-11,46; 17,32</t>
+          <t>-12,65; 17,79</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-29,75; -3,53</t>
+          <t>-29,5; -3,99</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-64,93; -46,56</t>
+          <t>-64,78; -45,72</t>
         </is>
       </c>
     </row>
